--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem6\vvss\labs\vvss\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7E4BED-9E8F-434D-8326-0F7CECC35D12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -116,19 +122,53 @@
   </si>
   <si>
     <t>Effort to perform dynamic code analysis (hours):</t>
+  </si>
+  <si>
+    <t>Pantazescu Vlad</t>
+  </si>
+  <si>
+    <t>Penciuc Raluca</t>
+  </si>
+  <si>
+    <t>RO1</t>
+  </si>
+  <si>
+    <t>RO2</t>
+  </si>
+  <si>
+    <t>RO6</t>
+  </si>
+  <si>
+    <t>RO7</t>
+  </si>
+  <si>
+    <t>Nu este precizata structura fisierului de intrare</t>
+  </si>
+  <si>
+    <t>Nu este precizat tipul aplicatiei</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza modalitatea de salvare a modificarilor listei de task-uri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,75 +333,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -374,6 +415,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,9 +499,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,6 +551,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,105 +743,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="24"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -777,42 +863,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -821,7 +929,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -830,7 +938,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -839,7 +947,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -848,7 +956,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -857,7 +965,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -866,7 +974,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -875,7 +983,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -884,7 +992,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -893,7 +1001,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -902,7 +1010,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -911,7 +1019,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -920,15 +1028,17 @@
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -945,104 +1055,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1064,7 +1174,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1073,7 +1183,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1082,7 +1192,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1091,7 +1201,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1100,7 +1210,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1109,7 +1219,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1118,7 +1228,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1127,7 +1237,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1136,7 +1246,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1145,7 +1255,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1154,7 +1264,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1163,7 +1273,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1172,7 +1282,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1181,7 +1291,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1190,7 +1300,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1199,7 +1309,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1208,10 +1318,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1233,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1243,95 +1353,95 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1353,7 +1463,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1362,7 +1472,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1371,7 +1481,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1380,7 +1490,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1389,7 +1499,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1398,7 +1508,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1407,7 +1517,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1416,7 +1526,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1425,7 +1535,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1434,7 +1544,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1443,7 +1553,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1452,7 +1562,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1461,7 +1571,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1470,7 +1580,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1479,7 +1589,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1488,7 +1598,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1497,7 +1607,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1506,7 +1616,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1515,7 +1625,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1524,7 +1634,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1533,10 +1643,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1568,85 +1678,85 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1672,7 +1782,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1682,7 +1792,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1692,7 +1802,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1702,7 +1812,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1712,7 +1822,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1722,7 +1832,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1732,7 +1842,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1742,7 +1852,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1752,7 +1862,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1762,7 +1872,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1772,7 +1882,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1782,7 +1892,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1792,7 +1902,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1802,7 +1912,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1812,7 +1922,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1822,7 +1932,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1832,7 +1942,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1842,7 +1952,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1852,7 +1962,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1862,7 +1972,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1872,15 +1982,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="32" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem6\vvss\labs\vvss\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7E4BED-9E8F-434D-8326-0F7CECC35D12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4AB278-F2A3-499D-ADE5-4F117D53DDC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -333,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -363,6 +363,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -405,7 +406,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +753,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,19 +773,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -795,7 +798,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -806,14 +809,14 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -824,10 +827,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -839,15 +842,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="36">
+        <v>44077</v>
+      </c>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1081,19 +1088,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1113,10 +1120,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1127,10 +1134,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1142,15 +1149,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1370,19 +1377,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1402,10 +1409,10 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1416,10 +1423,10 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1431,15 +1438,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1696,19 +1703,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1728,8 +1735,8 @@
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1740,8 +1747,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1753,8 +1760,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1986,11 +1993,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\s6\vvss\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAED823-0712-498B-964C-A1D2E995F072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650"/>
+    <workbookView xWindow="2250" yWindow="2475" windowWidth="21600" windowHeight="11400" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,21 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -115,20 +130,232 @@
     <t>Numele si prenumele</t>
   </si>
   <si>
-    <t>Effort to perform dynamic code analysis (hours):</t>
+    <t>Pantazescu Vlad-Octavian</t>
+  </si>
+  <si>
+    <t>Penciuc Iulia-Raluca</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>Notificator.java, 13-14</t>
+  </si>
+  <si>
+    <t>Constant names should comply with a naming convention</t>
+  </si>
+  <si>
+    <t>millisecondsInSec; secondsInMin</t>
+  </si>
+  <si>
+    <t>MILLISECONDS_IN_SEC; SECONDS_IN_MIN</t>
+  </si>
+  <si>
+    <t>Notificator.java, 41-42</t>
+  </si>
+  <si>
+    <t>Collapsible "if" statements should be merged</t>
+  </si>
+  <si>
+    <t>if (!t.isRepeated()){
+                            if (getTimeInMinutes(currentDate) == getTimeInMinutes(t.getTime())){
+                                showNotification(t);
+                            }
+                        }</t>
+  </si>
+  <si>
+    <t>if (!t.isRepeated() &amp;&amp; getTimeInMinutes(currentDate) == getTimeInMinutes(t.getTime())){
+                            showNotification(t);
+                        }</t>
+  </si>
+  <si>
+    <t>Class variable fields should not have public accessibility</t>
+  </si>
+  <si>
+    <t>Main.java, 30</t>
+  </si>
+  <si>
+    <t>public static File savedTasksFile = new File(classLoader.getResource("data/tasks.txt").getFile());</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public static final File savedTasksFile = new File(classLoader.getResource("data/tasks.txt").getFile());</t>
+  </si>
+  <si>
+    <t>Task.java, 96</t>
+  </si>
+  <si>
+    <t>Boolean checks should not be inverted</t>
+  </si>
+  <si>
+    <t>return !(this.interval == 0);</t>
+  </si>
+  <si>
+    <t>return this.interval != 0;</t>
+  </si>
+  <si>
+    <t>Task.java, 20</t>
+  </si>
+  <si>
+    <t>Non-thread-safe fields should not be static</t>
+  </si>
+  <si>
+    <t>private static final SimpleDateFormat sdf = new SimpleDateFormat("yyyy-MM-dd HH:mm");</t>
+  </si>
+  <si>
+    <t>private SimpleDateFormat sdf = new SimpleDateFormat("yyyy-MM-dd HH:mm");</t>
+  </si>
+  <si>
+    <t>TaskOperations.java, 20-21</t>
+  </si>
+  <si>
+    <t>Standard outputs should not be used directly to log anything</t>
+  </si>
+  <si>
+    <t>System.out.println(start); System.out.println(end);</t>
+  </si>
+  <si>
+    <t>LOG.info(start); LOG.info(end);</t>
+  </si>
+  <si>
+    <t>Declarations should use Java collection interfaces such as "List" rather than specific implementation classes such as "LinkedList"</t>
+  </si>
+  <si>
+    <t>TaskOperations.java, 12</t>
+  </si>
+  <si>
+    <t>public ArrayList&lt;Task&gt; tasks;</t>
+  </si>
+  <si>
+    <t>public List&lt;Task&gt; tasks;</t>
+  </si>
+  <si>
+    <t>TaskIO.java, 170-171</t>
+  </si>
+  <si>
+    <t>String function use should be optimized for single characters</t>
+  </si>
+  <si>
+    <t>int start = line.lastIndexOf("["); int end = line.lastIndexOf("]");</t>
+  </si>
+  <si>
+    <t>int start = line.lastIndexOf('['); int end = line.lastIndexOf(']');</t>
+  </si>
+  <si>
+    <t>Effort to perform dynamic code analysis (hours): 1</t>
+  </si>
+  <si>
+    <t>Task.java, 177</t>
+  </si>
+  <si>
+    <t>clone should not be overridden</t>
+  </si>
+  <si>
+    <t>Metoda clone() este suprascrisa datorita interfetei implementate de clasa Task (Clonable)</t>
+  </si>
+  <si>
+    <t>Main.java, 21</t>
+  </si>
+  <si>
+    <t>public static fields should be constant, Class variable fields should not have public accessibility</t>
+  </si>
+  <si>
+    <t>TaskIO.java, 17</t>
+  </si>
+  <si>
+    <t>JavaFX are nevoie de aceasta variabila declarata in acest mod.</t>
+  </si>
+  <si>
+    <t>Chiar daca nu este Thread-safe, acest lucru nu ne incurca in problema de fata.</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>Controller.java, 110</t>
+  </si>
+  <si>
+    <t>ArrayTaskList.java, 56</t>
+  </si>
+  <si>
+    <t>Este setat un nou task dar nu se verifica daca acesta este diferit de null. Se poate adauga o conditie if care face verificarea.</t>
+  </si>
+  <si>
+    <t>Conditia if (task.equals(null)) este tot timpul egala cu False. Va fi inlocuita cu if(task == null)</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>Mod incorect de a adauga un Task nou. In prezent se poate adauga un task nou doar daca nu este selectat un task existent. Se poate face o verificare daca butonul este de edit/new, adaugand un parametru suplimentar in controller-ul "NewEditController"</t>
+  </si>
+  <si>
+    <t>Controller.java, 111  /  NewEditController.java, 143</t>
+  </si>
+  <si>
+    <t>TaskInfoController.java, 27</t>
+  </si>
+  <si>
+    <t>In caz ca niciun task nu a fost selectat, va aparea eroare. Se poate adauga o conditie in Controller.java inainte de a crea fereastra, verificand daca un task a fost selectat.</t>
+  </si>
+  <si>
+    <t>RO1</t>
+  </si>
+  <si>
+    <t>Nu este precizata structura fisierului de intrare</t>
+  </si>
+  <si>
+    <t>RO2</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza modalitatea de salvare a modificarilor listei de task-uri</t>
+  </si>
+  <si>
+    <t>RO6</t>
+  </si>
+  <si>
+    <t>RO7</t>
+  </si>
+  <si>
+    <t>Nu este precizat tipul aplicatiei</t>
+  </si>
+  <si>
+    <t>Penciuc Raluca</t>
+  </si>
+  <si>
+    <t>Pantazescu Vlad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,76 +520,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -374,6 +606,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +657,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,9 +690,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,6 +742,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,105 +934,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="37">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="25"/>
+      <c r="H4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="37">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="27"/>
+      <c r="H5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="36">
+        <v>44077</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -777,153 +1058,175 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="37">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
-        <f t="shared" ref="B12:B25" si="0">B11+1</f>
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="37">
+        <f t="shared" ref="B12:B13" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B12:B25" si="1">B13+1</f>
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
@@ -945,7 +1248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -955,94 +1258,94 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1064,7 +1367,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1073,7 +1376,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1082,7 +1385,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1091,7 +1394,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1100,7 +1403,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1109,7 +1412,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1118,7 +1421,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1127,7 +1430,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1136,7 +1439,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1145,7 +1448,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1154,7 +1457,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1163,7 +1466,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1172,7 +1475,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1181,7 +1484,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1190,7 +1493,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1199,7 +1502,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1208,10 +1511,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1233,105 +1536,121 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B9" sqref="B9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="64.5703125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="36">
+        <v>43899</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1345,42 +1664,66 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1389,7 +1732,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1398,7 +1741,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1407,7 +1750,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1416,7 +1759,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1425,7 +1768,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1434,7 +1777,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1443,7 +1786,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1452,7 +1795,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1461,7 +1804,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1470,7 +1813,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1479,7 +1822,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1488,7 +1831,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1497,7 +1840,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1506,7 +1849,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1515,7 +1858,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1524,7 +1867,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1533,15 +1876,17 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1558,95 +1903,113 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="88" style="6" customWidth="1"/>
+    <col min="5" max="5" width="106.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="92.85546875" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="31"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="22"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="36">
+        <v>43899</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1663,116 +2026,198 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1782,7 +2227,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1792,7 +2237,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1802,7 +2247,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1812,7 +2257,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1822,7 +2267,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1832,7 +2277,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1842,7 +2287,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1852,7 +2297,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1862,7 +2307,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1872,15 +2317,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\s6\vvss\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem6\vvss\labs\vvss\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAED823-0712-498B-964C-A1D2E995F072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F9F23-1A22-4D08-8090-2225FC31B210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2475" windowWidth="21600" windowHeight="11400" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2256" yWindow="2472" windowWidth="21600" windowHeight="11400" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -19,20 +19,11 @@
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -330,18 +321,43 @@
   <si>
     <t>Pantazescu Vlad</t>
   </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Nu, ar trebui sa existe un pachet pentru Repository, care sa contina fisierul TaskIO</t>
+  </si>
+  <si>
+    <t>Nu, ar trebui sa includa arhitectura multilayer, care sa evidentieze structura controller-service-repository-model</t>
+  </si>
+  <si>
+    <t>Da, dar atributul time al clasei Task nu este necesar sau prevazut in specificatii.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,81 +536,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -940,111 +957,111 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="6"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="37" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="22">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="H4" s="37" t="s">
+      <c r="E4" s="27"/>
+      <c r="H4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="22">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="H5" s="37" t="s">
+      <c r="E5" s="29"/>
+      <c r="H5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="23">
         <v>44077</v>
       </c>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1058,8 +1075,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="22">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1072,8 +1089,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="37">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="22">
         <f>B10+1</f>
         <v>2</v>
       </c>
@@ -1087,8 +1104,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="37">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="22">
         <f t="shared" ref="B12:B13" si="0">B11+1</f>
         <v>3</v>
       </c>
@@ -1102,8 +1119,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="37">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1115,16 +1132,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
-        <f t="shared" ref="B12:B25" si="1">B13+1</f>
+        <f t="shared" ref="B14:B25" si="1">B13+1</f>
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1133,7 +1150,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1142,7 +1159,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1151,7 +1168,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1160,7 +1177,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1169,7 +1186,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1178,7 +1195,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1187,7 +1204,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1196,7 +1213,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1205,7 +1222,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1214,7 +1231,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1223,15 +1240,17 @@
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1254,39 +1273,39 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1295,57 +1314,69 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="23">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1359,33 +1390,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1394,7 +1443,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1403,7 +1452,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1412,7 +1461,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1421,7 +1470,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1430,7 +1479,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1439,7 +1488,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1448,7 +1497,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1457,7 +1506,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1466,7 +1515,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1475,7 +1524,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1484,7 +1533,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1493,7 +1542,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1502,7 +1551,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1511,15 +1560,17 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1546,36 +1597,36 @@
       <selection activeCell="B9" sqref="B9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="6" customWidth="1"/>
-    <col min="5" max="6" width="64.5703125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="64.5546875" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1584,7 +1635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1595,14 +1646,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1613,14 +1664,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1631,26 +1682,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="23">
         <v>43899</v>
       </c>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1664,7 +1715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1678,7 +1729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1693,7 +1744,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1708,7 +1759,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1723,7 +1774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1732,7 +1783,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1741,7 +1792,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1750,7 +1801,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1759,7 +1810,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1768,7 +1819,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1777,7 +1828,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1786,7 +1837,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1795,7 +1846,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1804,7 +1855,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1813,7 +1864,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1822,7 +1873,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1831,7 +1882,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1840,7 +1891,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1849,7 +1900,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1858,7 +1909,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1867,7 +1918,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1876,10 +1927,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1909,41 +1960,41 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="88" style="6" customWidth="1"/>
-    <col min="5" max="5" width="106.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="92.85546875" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="5" max="5" width="106.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="92.88671875" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1952,7 +2003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1963,14 +2014,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1981,14 +2032,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1999,17 +2050,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="23">
         <v>43899</v>
       </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -2043,7 +2094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -2061,7 +2112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -2079,7 +2130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2097,7 +2148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2115,7 +2166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2133,7 +2184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2151,7 +2202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2169,7 +2220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2185,7 +2236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2201,7 +2252,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2217,7 +2268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2227,7 +2278,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2237,7 +2288,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2247,7 +2298,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2257,7 +2308,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2267,7 +2318,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2277,7 +2328,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2287,7 +2338,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2297,7 +2348,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2307,7 +2358,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2317,15 +2368,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="34" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>
